--- a/Prj_documentation/Doc/Gantt.xlsx
+++ b/Prj_documentation/Doc/Gantt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCA\4th sem\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SAFEPAWS\Prj_documentation\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -59,19 +59,10 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upcoming </t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
     <t xml:space="preserve">Completed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active </t>
   </si>
 </sst>
 </file>
@@ -218,6 +209,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="480060" y="3764280"/>
+          <a:ext cx="10058400" cy="1539301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -487,18 +522,18 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -557,10 +592,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -575,10 +610,10 @@
       </c>
       <c r="F3" s="4"/>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -594,10 +629,10 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="N4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -614,10 +649,10 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -635,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
